--- a/4.Analysis/Data/raw/day2/phase_003/subj_day2_phase_003.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_003/subj_day2_phase_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">D.三个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">phase_003_subj_15</t>
@@ -1344,7 +1347,7 @@
         <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
         <v>47</v>
@@ -1353,7 +1356,7 @@
         <v>47</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA7" t="n">
         <v>693</v>
@@ -1361,19 +1364,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1382,7 +1385,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1400,7 +1403,7 @@
         <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
@@ -1424,10 +1427,10 @@
         <v>64</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W8" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="X8" t="s">
         <v>47</v>
@@ -1436,7 +1439,7 @@
         <v>47</v>
       </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA8" t="n">
         <v>584</v>
@@ -1444,19 +1447,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1465,7 +1468,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -1477,13 +1480,13 @@
         <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -1507,7 +1510,7 @@
         <v>64</v>
       </c>
       <c r="V9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W9" t="s">
         <v>46</v>
@@ -1519,7 +1522,7 @@
         <v>47</v>
       </c>
       <c r="Z9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA9" t="n">
         <v>396</v>
@@ -1527,19 +1530,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1587,10 +1590,10 @@
         <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W10" t="s">
         <v>46</v>
@@ -1602,7 +1605,7 @@
         <v>47</v>
       </c>
       <c r="Z10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA10" t="n">
         <v>403</v>
@@ -1610,19 +1613,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1631,7 +1634,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1640,7 +1643,7 @@
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -1649,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
@@ -1670,10 +1673,10 @@
         <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W11" t="s">
         <v>46</v>
@@ -1685,7 +1688,7 @@
         <v>47</v>
       </c>
       <c r="Z11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA11" t="n">
         <v>60</v>
@@ -1693,19 +1696,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1714,7 +1717,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -1732,7 +1735,7 @@
         <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
@@ -1753,10 +1756,10 @@
         <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W12" t="s">
         <v>46</v>
@@ -1768,7 +1771,7 @@
         <v>47</v>
       </c>
       <c r="Z12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA12" t="n">
         <v>569</v>
@@ -1776,19 +1779,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1797,7 +1800,7 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -1836,13 +1839,13 @@
         <v>42</v>
       </c>
       <c r="U13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W13" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="X13" t="s">
         <v>47</v>
@@ -1851,7 +1854,7 @@
         <v>47</v>
       </c>
       <c r="Z13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA13" t="n">
         <v>49</v>
